--- a/21068　今村　残補講計画.xlsx
+++ b/21068　今村　残補講計画.xlsx
@@ -831,35 +831,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,10 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1166,20 +1169,20 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="42">
         <v>21068</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="42">
+      <c r="D2" s="47">
         <v>3</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1220,7 +1223,7 @@
         <f t="shared" si="0"/>
         <v>44633</v>
       </c>
-      <c r="K3" s="46"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
@@ -1256,10 +1259,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1284,7 +1287,7 @@
       <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="48"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1353,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="48"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1414,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1431,7 +1434,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="50"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1452,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="50"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1470,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="17" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1506,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1524,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -1547,20 +1550,20 @@
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="42">
         <v>21068</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="42">
+      <c r="D21" s="47">
         <v>3</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1602,7 +1605,7 @@
         <f t="shared" ref="J22" si="8">I22+1</f>
         <v>44640</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
@@ -1638,10 +1641,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K23" s="46"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -1664,7 +1667,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="17" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1688,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="48"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="17" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="17" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1732,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="48"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="17" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1759,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="48"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="17" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1786,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -1824,7 +1827,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="50"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
@@ -1842,7 +1845,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="50"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="19" t="s">
         <v>15</v>
       </c>
@@ -1860,7 +1863,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="50"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="19" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1881,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="17" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1899,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="48"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="17" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1917,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="18" t="s">
         <v>8</v>
       </c>
@@ -1939,20 +1942,20 @@
       <c r="A40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="42">
         <v>21068</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="42">
+      <c r="D40" s="47">
         <v>3</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1994,7 +1997,7 @@
         <f t="shared" ref="J41" si="17">I41+1</f>
         <v>44647</v>
       </c>
-      <c r="K41" s="46"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
@@ -2030,10 +2033,10 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K42" s="46"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -2056,7 +2059,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="48"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2080,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="48"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="17" t="s">
         <v>15</v>
       </c>
@@ -2098,7 +2101,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="48"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="17" t="s">
         <v>16</v>
       </c>
@@ -2119,7 +2122,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="17" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2143,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="17" t="s">
         <v>18</v>
       </c>
@@ -2161,7 +2164,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="49"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
@@ -2184,7 +2187,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="50"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="19" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2225,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="50"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="19" t="s">
         <v>15</v>
       </c>
@@ -2240,7 +2243,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="50"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="19" t="s">
         <v>5</v>
       </c>
@@ -2258,7 +2261,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="17" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2279,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="17" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2297,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="49"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="18" t="s">
         <v>8</v>
       </c>
@@ -2313,21 +2316,24 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:K23"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="K40:K42"/>
     <mergeCell ref="A43:A49"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:K23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>